--- a/final-reports/report/Images/Solution/solution_architecture.xlsx
+++ b/final-reports/report/Images/Solution/solution_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KatB\Projects\Github\Thesis-report\MscThesis\final-reports\report\Images\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{330DF1BF-C55F-4965-B3F8-3E3E296D8C76}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3A4E1F-5DA7-4BFD-B768-4C1DA3ED6549}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{DED83558-BEB7-49A4-9AD0-77FCFB1CED69}"/>
   </bookViews>
@@ -31,30 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>User Program</t>
-  </si>
-  <si>
-    <t>Optimization Library 1</t>
-  </si>
-  <si>
-    <t>Optimization Library n</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Performance Indicators</t>
-  </si>
-  <si>
-    <t>Post Processing</t>
-  </si>
-  <si>
-    <t>Visualization</t>
   </si>
   <si>
     <t>Abstraction Layer</t>
@@ -65,12 +44,15 @@
   <si>
     <t>Solution</t>
   </si>
+  <si>
+    <t>Results Processing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,10 +61,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Abadi"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -206,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -216,15 +206,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,13 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -263,6 +238,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -288,14 +275,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>193910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>193910</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -310,14 +297,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1478280" y="1863090"/>
-          <a:ext cx="1047750" cy="0"/>
+          <a:off x="1550031" y="1611419"/>
+          <a:ext cx="462903" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -340,15 +329,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>194310</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:colOff>7099</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>191673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7099</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>191683</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -362,15 +351,16 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3444240" y="1851660"/>
-          <a:ext cx="1238250" cy="3810"/>
+        <a:xfrm flipV="1">
+          <a:off x="2934410" y="1609182"/>
+          <a:ext cx="246111" cy="10"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -392,16 +382,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>896302</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>194371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>194310</xdr:rowOff>
+      <xdr:colOff>6667</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>194379</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -415,15 +405,16 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5528310" y="1737360"/>
-          <a:ext cx="1238250" cy="3810"/>
+        <a:xfrm flipV="1">
+          <a:off x="4069724" y="1611880"/>
+          <a:ext cx="215502" cy="8"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -445,69 +436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>293370</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conexão reta unidirecional 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FD72F8-76B9-41C4-8099-EEE97F8C7D4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7700010" y="1714500"/>
-          <a:ext cx="274320" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>316230</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9465</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>18932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302907</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>18934</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -522,14 +460,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7700010" y="1356360"/>
-          <a:ext cx="243840" cy="358140"/>
+          <a:off x="5199111" y="1436441"/>
+          <a:ext cx="293442" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -551,16 +490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>257938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>2367</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>257938</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -575,14 +514,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7692390" y="1714500"/>
-          <a:ext cx="247650" cy="396240"/>
+          <a:off x="5203845" y="1675447"/>
+          <a:ext cx="1488503" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -604,15 +544,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>622040</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>97193</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>112745</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>182724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -635,8 +575,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:prstDash val="dash"/>
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -658,15 +599,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>330459</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -689,7 +630,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
@@ -712,16 +654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>427068</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>439146</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>407984</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>413064</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -736,15 +678,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5029960" y="2016309"/>
-          <a:ext cx="12078" cy="723356"/>
+          <a:off x="3669344" y="1797050"/>
+          <a:ext cx="5080" cy="439420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:prstDash val="dash"/>
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -766,16 +709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>729561</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>98629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>106995</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2241</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -790,14 +733,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5332453" y="2024224"/>
-          <a:ext cx="400299" cy="720531"/>
+          <a:off x="4196661" y="1930400"/>
+          <a:ext cx="405819" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
@@ -820,16 +764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514005</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>92150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>526083</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180506</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>478488</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>483568</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -844,14 +788,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5116897" y="2017745"/>
-          <a:ext cx="12078" cy="723356"/>
+          <a:off x="3739848" y="1797050"/>
+          <a:ext cx="5080" cy="439420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
@@ -874,16 +819,87 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>786372</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>92150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>207235</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>172886</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>191383</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>629478</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Retângulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E0318A-C92F-42E6-A0B3-A77061768108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6623420" y="2116881"/>
+          <a:ext cx="1334983" cy="955113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="800"/>
+            <a:t>Legend</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207237</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>172752</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -898,15 +914,271 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4366399" y="2017745"/>
-          <a:ext cx="443728" cy="715736"/>
+          <a:off x="2927311" y="1798509"/>
+          <a:ext cx="453348" cy="430696"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>309263</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>437794</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>300425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Retângulo 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A55137-AA7A-42D4-B338-BC719DDDC23C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6999244" y="2289902"/>
+          <a:ext cx="1406420" cy="249194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="800" baseline="0"/>
+            <a:t>External Connection </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314069</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>292874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>109425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Retângulo 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078AD40A-B18F-421F-80B2-3F2CE72A2529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7004050" y="2531545"/>
+          <a:ext cx="1073245" cy="249492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="800"/>
+            <a:t>Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="800" baseline="0"/>
+            <a:t> Flow</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311997</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107353</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Retângulo 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A80772E-3338-4642-BE23-7A3C18D3C40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7001978" y="2739818"/>
+          <a:ext cx="1073245" cy="248830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="800"/>
+            <a:t>Components</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>908721</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conexão reta unidirecional 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2C84F2-8D9E-421F-ACBF-2B4EAE0075A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429671" y="1332335"/>
+          <a:ext cx="267930" cy="1118"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -918,6 +1190,2541 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4733</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Retângulo 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFB0478-61A5-4D6A-9784-454865465BA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2132181" y="2234079"/>
+          <a:ext cx="892154" cy="413358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000"/>
+            <a:t>Optimization Library</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>871220</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Retângulo 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3202F6-FC9E-4CAA-A89E-DA440B56EDA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4485640" y="2613660"/>
+          <a:ext cx="878840" cy="414020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000"/>
+            <a:t>Optimization Library</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" baseline="0"/>
+            <a:t> n</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Retângulo 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED0839C-F1D0-46F4-A2E7-43C5667AEF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3464560" y="2613660"/>
+          <a:ext cx="891540" cy="414020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000"/>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Retângulo 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D110968C-3E4E-4B52-BBBE-3049A1AA301D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6692521" y="1154927"/>
+          <a:ext cx="1103764" cy="643582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000"/>
+            <a:t>Post-Processing and Visual Mechanisms</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>237031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>145979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Retângulo 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A0C756-890E-4B33-B595-8A5EF9EA1BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5446596" y="1148118"/>
+          <a:ext cx="933284" cy="415370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000"/>
+            <a:t>Performance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" baseline="0"/>
+            <a:t> Indicators</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44158</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>294845</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>193574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Conexão reta unidirecional 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260848D7-CEE8-4D1F-94BF-6F4FD8BAF7C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6734139" y="2429533"/>
+          <a:ext cx="250687" cy="2712"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42579</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>308575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Conexão reta unidirecional 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E10B5B-9AD1-4E31-8C55-7BF05D0CB690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6732560" y="2649209"/>
+          <a:ext cx="265996" cy="1716"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29469</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>170566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312007</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Retângulo 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE4777A-3A1B-4AA2-81D5-71E97FEF6CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6719450" y="2790237"/>
+          <a:ext cx="282538" cy="160225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>894080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Retângulo 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DF6D66-BC68-4C1C-98A0-E54A5A6EFCB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3268980" y="1511300"/>
+          <a:ext cx="891540" cy="414020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Retângulo 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A04FE25-05E5-4BA8-AE94-2E4430C474B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2014220" y="1511300"/>
+          <a:ext cx="916940" cy="414020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Retângulo 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B5F0F8-969E-419C-937B-B4FAE8664A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1511300"/>
+          <a:ext cx="919480" cy="414020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>193910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>193910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Conexão reta unidirecional 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6475DF85-DBF4-48F2-AD25-D4D7644DFCF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1550031" y="1611419"/>
+          <a:ext cx="422673" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7099</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>191673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7099</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>191683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Conexão reta unidirecional 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56B4F35-5BDF-49F9-878E-3E7C307C30FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2894180" y="1609182"/>
+          <a:ext cx="246112" cy="10"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>896302</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>194371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6667</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>194379</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Conexão reta unidirecional 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64918A9B-74DF-4CF3-AFAC-F4CAC39DA276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4029495" y="1611880"/>
+          <a:ext cx="215501" cy="8"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9465</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302907</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18934</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Conexão reta unidirecional 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBF870C-AA31-4A49-9BC5-7880022C2AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5158881" y="1436441"/>
+          <a:ext cx="293442" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>257938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2367</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>257938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Conexão reta unidirecional 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931D2C48-36A9-48C8-A6C9-ECB8B5E47391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5163615" y="1675447"/>
+          <a:ext cx="1488504" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112745</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Conexão reta unidirecional 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB479490-9E4B-42C3-A7DD-2661EFA026FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3755233" y="1798509"/>
+          <a:ext cx="401792" cy="440668"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330459</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Conexão reta unidirecional 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD297D61-FE2C-4B90-BEF4-2CD91C0CE49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3019603" y="1798509"/>
+          <a:ext cx="444049" cy="429394"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>407984</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>413064</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Conexão reta unidirecional 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12700409-C107-415A-8E95-A6330900D0C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3541177" y="1793429"/>
+          <a:ext cx="5080" cy="438284"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>729561</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Conexão reta unidirecional 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9E3007-5DB3-47B1-BF3C-CE84A90CC19F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3862754" y="1798509"/>
+          <a:ext cx="403515" cy="420504"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>478488</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>483568</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Conexão reta unidirecional 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B186C1-38C2-408A-A28F-D7BCB91C4EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3611681" y="1793429"/>
+          <a:ext cx="5080" cy="438284"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>191383</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>629478</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>87888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Retângulo 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F18D83-8141-4338-91CC-27CBB250BD2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6583190" y="2116881"/>
+          <a:ext cx="1334984" cy="955113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="800"/>
+            <a:t>Legend</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>207237</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>172752</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Conexão reta unidirecional 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB7ADB8-EBDF-4267-8A8C-B266E6F214A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2887081" y="1798509"/>
+          <a:ext cx="453349" cy="430696"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>309263</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>437794</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>300425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Retângulo 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD20D0D0-0474-4FA2-8064-D49F9ECBCE5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6959015" y="2289902"/>
+          <a:ext cx="1406419" cy="249194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="800" baseline="0"/>
+            <a:t>External Connection </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314069</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>292874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>109425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Retângulo 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F58D1C5-A262-456B-8CC7-5E047EF7D295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6963821" y="2531545"/>
+          <a:ext cx="1073244" cy="249492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="800"/>
+            <a:t>Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="800" baseline="0"/>
+            <a:t> Flow</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311997</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107353</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Retângulo 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D175192B-22B2-4265-8A19-4AF1029DCC36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6961749" y="2739818"/>
+          <a:ext cx="1073244" cy="248830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="800"/>
+            <a:t>Components</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>908721</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Conexão reta unidirecional 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12E4D5D-F993-41D6-B248-E6EC148812C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6389441" y="1332335"/>
+          <a:ext cx="267931" cy="1118"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4733</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Retângulo 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9663B4B0-8395-4BAF-B754-4682D17EABC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2132181" y="2234079"/>
+          <a:ext cx="892154" cy="413358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000"/>
+            <a:t>Optimization Library</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>871220</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Retângulo 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C333025A-7DD3-42EC-8C60-31015431BDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4150960" y="2231713"/>
+          <a:ext cx="958589" cy="413358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000"/>
+            <a:t>Optimization Library</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" baseline="0"/>
+            <a:t> n</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Retângulo 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D186D5-E2BE-4637-8C15-642669AD51B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3131362" y="2231713"/>
+          <a:ext cx="890831" cy="413358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000"/>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Retângulo 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467FF49E-002F-4D42-B019-86BFE9A650D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6652292" y="1154927"/>
+          <a:ext cx="1103764" cy="643582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000"/>
+            <a:t>Post-Processing and Visual Mechanisms</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>237031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>899160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Retângulo 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B5F6CA-C28A-4263-872D-D0C4E92CDB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5446596" y="1148118"/>
+          <a:ext cx="933284" cy="415370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000"/>
+            <a:t>Performance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1000" baseline="0"/>
+            <a:t> Indicators</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44158</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>294845</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>193574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Conexão reta unidirecional 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66178F69-9DBC-41CC-80F4-01D19D0E96A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6693910" y="2429533"/>
+          <a:ext cx="250687" cy="2712"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42579</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>308575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>31254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Conexão reta unidirecional 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C15D23-13FD-46FB-BA4E-5C5DF769BE20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6692331" y="2649209"/>
+          <a:ext cx="265996" cy="1716"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29469</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>170566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312007</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>148574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="Retângulo 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9438F83E-253F-4923-8449-297F06288FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6679221" y="2790237"/>
+          <a:ext cx="282538" cy="160225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>894080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Retângulo 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801E1643-3DEA-4797-B599-608B52CEB0BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3135733" y="1380987"/>
+          <a:ext cx="891540" cy="412442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Retângulo 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054FEEAE-6710-48D7-AB6D-69BCE5083AB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1968894" y="1380987"/>
+          <a:ext cx="923267" cy="412442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>375920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Retângulo 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24764481-3817-4559-B6B3-4CC13A6F4C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4245949" y="1380987"/>
+          <a:ext cx="918707" cy="412442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>686273</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>432518</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179851</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Conexão: Ângulo Reto 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01179A15-C160-4475-AA26-5DE077610D2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="3529838" y="2250127"/>
+          <a:ext cx="178780" cy="4588021"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -127867"/>
+            <a:gd name="adj2" fmla="val 100010"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>683907</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>554422</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Conexão: Ângulo Reto 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251F9FC5-C2F9-4934-9C5C-8ADC6B01E5B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="4171349" y="1605438"/>
+          <a:ext cx="184327" cy="5881323"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -124019"/>
+            <a:gd name="adj2" fmla="val 99999"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1226,173 +4033,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D402111-FC1C-4179-8E0B-199530BA6A44}">
-  <dimension ref="B6:P15"/>
+  <dimension ref="B6:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="111" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="161" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.83984375" style="2"/>
     <col min="2" max="2" width="12.578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="4.578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.1015625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.1015625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.578125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.83984375" style="2"/>
+    <col min="3" max="3" width="2.7890625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.68359375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.83984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.68359375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.578125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:16" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D6" s="5" t="s">
-        <v>10</v>
+    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="16" t="s">
+        <v>3</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="14"/>
+    <row r="7" spans="2:15" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="2:16" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="3" t="s">
+    <row r="8" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13" t="s">
-        <v>8</v>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="s">
+        <v>1</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13" t="s">
-        <v>9</v>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>2</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="15" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="13" t="s">
-        <v>6</v>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="2:15" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="18"/>
+    </row>
+    <row r="22" spans="2:15" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="16" t="s">
+        <v>3</v>
       </c>
-      <c r="P9" s="14"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="6"/>
     </row>
-    <row r="10" spans="2:16" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="14"/>
+    <row r="23" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="10"/>
     </row>
-    <row r="11" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="13" t="s">
-        <v>7</v>
+    <row r="24" spans="2:15" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="P11" s="14"/>
-    </row>
-    <row r="12" spans="2:16" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="14" spans="2:16" ht="5.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G15" s="4" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="15"/>
     </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="28" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/final-reports/report/Images/Solution/solution_architecture.xlsx
+++ b/final-reports/report/Images/Solution/solution_architecture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KatB\Projects\Github\Thesis-report\MscThesis\final-reports\report\Images\Solution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Projects\Research Projects\ThesisReport\MscThesis\final-reports\report\Images\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3A4E1F-5DA7-4BFD-B768-4C1DA3ED6549}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAC2D3E-DBB1-41EF-B978-18403FB446E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{DED83558-BEB7-49A4-9AD0-77FCFB1CED69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DED83558-BEB7-49A4-9AD0-77FCFB1CED69}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -240,8 +240,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -249,8 +249,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,15 +946,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>309263</xdr:colOff>
+      <xdr:colOff>237004</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>51231</xdr:rowOff>
+      <xdr:rowOff>77507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>437794</xdr:colOff>
+      <xdr:colOff>89310</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>300425</xdr:rowOff>
+      <xdr:rowOff>326701</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -969,8 +969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6999244" y="2289902"/>
-          <a:ext cx="1406420" cy="249194"/>
+          <a:off x="5958573" y="2363507"/>
+          <a:ext cx="1034720" cy="249194"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1012,15 +1012,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>314069</xdr:colOff>
+      <xdr:colOff>248379</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>292874</xdr:rowOff>
+      <xdr:rowOff>299443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>109425</xdr:colOff>
+      <xdr:colOff>43735</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>161366</xdr:rowOff>
+      <xdr:rowOff>167935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1035,8 +1035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7004050" y="2531545"/>
-          <a:ext cx="1073245" cy="249492"/>
+          <a:off x="5969948" y="2585443"/>
+          <a:ext cx="977770" cy="249492"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1082,15 +1082,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>311997</xdr:colOff>
+      <xdr:colOff>252875</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>120147</xdr:rowOff>
+      <xdr:rowOff>139854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>107353</xdr:colOff>
+      <xdr:colOff>48231</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>4542</xdr:rowOff>
+      <xdr:rowOff>24249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1105,8 +1105,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7001978" y="2739818"/>
-          <a:ext cx="1073245" cy="248830"/>
+          <a:off x="6519668" y="2806854"/>
+          <a:ext cx="977770" cy="265395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3737,7 +3737,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4035,29 +4035,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D402111-FC1C-4179-8E0B-199530BA6A44}">
   <dimension ref="B6:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="161" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="2"/>
-    <col min="2" max="2" width="12.578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.7890625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="3" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.68359375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="1.83984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.68359375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.578125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.83984375" style="2"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="1.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="8.85546875" style="2"/>
+    <col min="16" max="16" width="2.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="16" t="s">
         <v>3</v>
       </c>
@@ -4073,7 +4075,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="2:15" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -4087,7 +4089,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -4108,9 +4110,9 @@
       <c r="L8" s="9"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -4122,9 +4124,9 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="15"/>
+      <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="2:15" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -4138,11 +4140,11 @@
       <c r="N10" s="12"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="18"/>
+    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D16" s="15"/>
     </row>
-    <row r="22" spans="2:15" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D22" s="16" t="s">
         <v>3</v>
       </c>
@@ -4158,7 +4160,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -4172,7 +4174,7 @@
       <c r="N23" s="8"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="2:15" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
@@ -4193,9 +4195,9 @@
       <c r="L24" s="9"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="15"/>
+      <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -4207,9 +4209,9 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="15"/>
+      <c r="O25" s="18"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -4223,7 +4225,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="28" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D6:E6"/>
